--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702728.2646179018</v>
+        <v>-705209.1844433604</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>79.28862487468123</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>1.338606192158195</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579947</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104942</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.0750253717755</v>
       </c>
       <c r="V11" t="n">
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>44.73558505440855</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292085</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>12.77362395619496</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184865</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8136950763542</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>267.6876178001941</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104944</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>176.9978235524937</v>
@@ -1664,7 +1664,7 @@
         <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>100.093237174767</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
@@ -1673,7 +1673,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.12341816966352</v>
+        <v>359.3177920689272</v>
       </c>
     </row>
     <row r="15">
@@ -1765,10 +1765,10 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
         <v>119.5138160594428</v>
@@ -1777,13 +1777,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>110.2677984222172</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271169</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184865</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
@@ -1828,10 +1828,10 @@
         <v>259.6028517494646</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019108</v>
+        <v>171.6187008431875</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>3.974324134331169</v>
       </c>
       <c r="H17" t="n">
         <v>220.7124811816014</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>196.1505424627068</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>84.85683139908211</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432832</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2059,7 +2059,7 @@
         <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130723</v>
       </c>
       <c r="W19" t="n">
         <v>212.627715130872</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>105.8091270782593</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
         <v>291.3776085652885</v>
@@ -2090,13 +2090,13 @@
         <v>308.0350868665428</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
         <v>253.8569752644159</v>
@@ -2147,7 +2147,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.2712996729236</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249335</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432832</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2302,10 +2302,10 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>214.2140663782816</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.0890643413388</v>
+        <v>144.6893701463758</v>
       </c>
     </row>
     <row r="23">
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245682</v>
+        <v>35.29247858245679</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V23" t="n">
         <v>253.8569752644159</v>
@@ -2384,7 +2384,7 @@
         <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290882</v>
+        <v>93.35153789290879</v>
       </c>
       <c r="D25" t="n">
-        <v>137.1198840074564</v>
+        <v>74.72018981249332</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085016</v>
+        <v>72.53867944085013</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721223</v>
+        <v>71.52576481721221</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330921</v>
+        <v>92.13052505330919</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860177</v>
+        <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411909</v>
+        <v>22.45713720411906</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432832</v>
+        <v>77.43656365929215</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U26" t="n">
         <v>204.0200353403094</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912466</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3013,7 +3013,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
         <v>230.06753824203</v>
@@ -3329,7 +3329,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>89.94326605922006</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621585</v>
+        <v>90.60953276887568</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
         <v>154.4529230957231</v>
@@ -3487,10 +3487,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H40" t="n">
-        <v>89.27723295060981</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>134.2912433677299</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3749,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383232</v>
+        <v>82.14725995383237</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010738</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846425</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482627</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309233</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8237348705159</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>163.1068713883833</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007081</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115151</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010735</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846416</v>
       </c>
       <c r="F46" t="n">
-        <v>91.27556587748757</v>
+        <v>47.73632779482624</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>89.27723295061013</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333689</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609321</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1903.838856584308</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>1562.06840690362</v>
+        <v>797.536544276728</v>
       </c>
       <c r="D11" t="n">
-        <v>1481.978886828184</v>
+        <v>466.4629129297012</v>
       </c>
       <c r="E11" t="n">
-        <v>1123.382701489664</v>
+        <v>466.4629129297012</v>
       </c>
       <c r="F11" t="n">
-        <v>739.5888639597798</v>
+        <v>82.66907539981742</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299084</v>
+        <v>81.31694793299096</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
@@ -5069,22 +5069,22 @@
         <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.50722039599</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>3242.50722039599</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2938.636400312143</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.059812301753</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>2266.786121300396</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1903.838856584308</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5109,10 @@
         <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,7 +5121,7 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>876.3230593527283</v>
+        <v>569.903804013584</v>
       </c>
       <c r="C13" t="n">
-        <v>734.578943684545</v>
+        <v>428.1596883454008</v>
       </c>
       <c r="D13" t="n">
-        <v>611.654371531933</v>
+        <v>305.2351161927888</v>
       </c>
       <c r="E13" t="n">
-        <v>490.9333452092635</v>
+        <v>305.2351161927888</v>
       </c>
       <c r="F13" t="n">
-        <v>371.2354649710768</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="G13" t="n">
-        <v>230.7246956055194</v>
+        <v>185.5372359546019</v>
       </c>
       <c r="H13" t="n">
-        <v>111.6995760831011</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
         <v>712.1345656402571</v>
@@ -5212,7 +5212,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P13" t="n">
         <v>2036.240867784764</v>
@@ -5221,28 +5221,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2140.502109058534</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>1976.008292145084</v>
+        <v>2064.961068614983</v>
       </c>
       <c r="T13" t="n">
-        <v>1976.008292145084</v>
+        <v>1870.386520444232</v>
       </c>
       <c r="U13" t="n">
-        <v>1714.097492530451</v>
+        <v>1608.4757208296</v>
       </c>
       <c r="V13" t="n">
-        <v>1486.605071584288</v>
+        <v>1380.983299883437</v>
       </c>
       <c r="W13" t="n">
-        <v>1224.379968807051</v>
+        <v>1118.7581971062</v>
       </c>
       <c r="X13" t="n">
-        <v>1224.379968807051</v>
+        <v>917.9607134679063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1030.779456923244</v>
+        <v>724.3602015841</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1813.052518175213</v>
+        <v>1425.172135279932</v>
       </c>
       <c r="C14" t="n">
-        <v>1813.052518175213</v>
+        <v>1425.172135279932</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.978886828185</v>
+        <v>1094.098503932905</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.382701489664</v>
+        <v>735.5023185943842</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5888639597802</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7084810645003</v>
+        <v>351.7084810645002</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299118</v>
+        <v>81.31694793299106</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395991</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039936</v>
+        <v>3146.820141253116</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573497</v>
+        <v>2920.481731786676</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.51231048965</v>
+        <v>2819.377451812165</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479259</v>
+        <v>2493.800863801774</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477903</v>
+        <v>2147.527172800418</v>
       </c>
       <c r="Y14" t="n">
-        <v>1813.052518175213</v>
+        <v>1784.579908084329</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.3126375609355</v>
+        <v>901.2692096237417</v>
       </c>
       <c r="C16" t="n">
-        <v>418.3126375609355</v>
+        <v>759.5250939555585</v>
       </c>
       <c r="D16" t="n">
-        <v>418.3126375609355</v>
+        <v>636.6005218029464</v>
       </c>
       <c r="E16" t="n">
-        <v>297.5916112382661</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>177.8937310000795</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>138.285694000374</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705055</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402568</v>
@@ -5446,7 +5446,7 @@
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
@@ -5455,7 +5455,7 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
         <v>2077.863719075785</v>
@@ -5467,19 +5467,19 @@
         <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1491.302933045422</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535517</v>
+        <v>1229.077830268185</v>
       </c>
       <c r="X16" t="n">
-        <v>766.369547015258</v>
+        <v>1055.725607194258</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.7690351314516</v>
+        <v>1055.725607194258</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542002</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>940.9592424104342</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>629.8126900199868</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>293.4684854381762</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344063</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
         <v>3158.620805936082</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V17" t="n">
-        <v>2781.600168344275</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W17" t="n">
-        <v>2781.600168344275</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2482.776110290992</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y17" t="n">
-        <v>2167.278478522977</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="18">
@@ -5589,22 +5589,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235549</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034449</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E19" t="n">
-        <v>389.1109578243101</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341967</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167126</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2260875423674</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,10 +5692,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
         <v>1795.061607088441</v>
@@ -5704,19 +5704,19 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817307</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459976</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.976134084841</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.655317352226</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.375523535084</v>
+        <v>941.0313189532728</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2289711446364</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628258</v>
@@ -5744,58 +5744,58 @@
         <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3289.956853344064</v>
+        <v>3158.620805936082</v>
       </c>
       <c r="U20" t="n">
-        <v>3111.068076825697</v>
+        <v>2979.732029417715</v>
       </c>
       <c r="V20" t="n">
-        <v>2854.646889689923</v>
+        <v>2723.310842281941</v>
       </c>
       <c r="W20" t="n">
-        <v>2576.519934627606</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2277.695876574323</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y20" t="n">
-        <v>1962.198244806309</v>
+        <v>1830.934273941166</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872286</v>
+        <v>569.1217789872283</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671186</v>
+        <v>474.8272962671184</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625799</v>
+        <v>399.3523570625797</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879837</v>
+        <v>326.0809636879836</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978704</v>
+        <v>253.8327163978703</v>
       </c>
       <c r="G22" t="n">
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.1960934060411</v>
+        <v>89.19609340604107</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,10 +5929,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S22" t="n">
         <v>1795.061607088441</v>
@@ -5941,7 +5941,7 @@
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V22" t="n">
         <v>1253.432737201115</v>
@@ -5950,10 +5950,10 @@
         <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817307</v>
+        <v>822.279422545404</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096713</v>
+        <v>676.1285436096709</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056951</v>
+        <v>1862.18597705695</v>
       </c>
       <c r="C23" t="n">
         <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925383</v>
+        <v>1284.241161925382</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349356</v>
+        <v>973.094609534935</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531244</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018608</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1383.526753844412</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516338</v>
+        <v>1917.058658516336</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.83747557512</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454457</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811635</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567318</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913276</v>
+        <v>2174.144116913275</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094441</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130998</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934469</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061123</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.27762327704</v>
       </c>
       <c r="Q24" t="n">
         <v>2571.91918092364</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0174115138539</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>544.7229287937439</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782827</v>
+        <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179634001</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
         <v>322.4875702182943</v>
@@ -6169,28 +6169,28 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1855.94143530779</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.92724547874</v>
+        <v>1738.897251342413</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.802330256063</v>
+        <v>1591.772336119736</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52290576225</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720296</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362965</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
         <v>1400.778593038484</v>
@@ -6212,10 +6212,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6239,7 +6239,7 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424367</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P26" t="n">
         <v>3474.791320094414</v>
@@ -6260,16 +6260,16 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="27">
@@ -6309,7 +6309,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,34 +6382,34 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960314</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973145</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982159</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O28" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
         <v>81.14691689668915</v>
@@ -6479,7 +6479,7 @@
         <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871313</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I30" t="n">
         <v>81.14691689668915</v>
@@ -6543,10 +6543,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6585,7 +6585,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="31">
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899674</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825705</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913853</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415483</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643406</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302716</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519673</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>2033.429937623799</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6734,7 +6734,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
@@ -6780,10 +6780,10 @@
         <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697995</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899659</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257035</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913843</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415466</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643389</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302699</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
@@ -6859,10 +6859,10 @@
         <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6877,7 +6877,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277852</v>
@@ -6892,7 +6892,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519659</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,58 +6920,58 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
@@ -7005,16 +7005,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>642.2355359389144</v>
+        <v>740.9069705127572</v>
       </c>
       <c r="C37" t="n">
-        <v>473.2993530110075</v>
+        <v>670.6422221586936</v>
       </c>
       <c r="D37" t="n">
-        <v>421.8541481725151</v>
+        <v>619.1970173202012</v>
       </c>
       <c r="E37" t="n">
-        <v>273.941054590122</v>
+        <v>471.2839237378081</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>324.3939762398977</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>255.36257418846</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7120,7 +7120,7 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
         <v>1711.184917632532</v>
@@ -7135,10 +7135,10 @@
         <v>1173.994696236858</v>
       </c>
       <c r="X37" t="n">
-        <v>1044.676579912684</v>
+        <v>946.0051453388403</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691541</v>
+        <v>823.8840007691535</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103806</v>
+        <v>1440.850850103805</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070899</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464979</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,7 +7202,7 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L39" t="n">
         <v>765.1517452158131</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866014</v>
+        <v>698.2736995386229</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325379</v>
+        <v>628.0089511845592</v>
       </c>
       <c r="D40" t="n">
-        <v>619.1970173202021</v>
+        <v>576.5637463460669</v>
       </c>
       <c r="E40" t="n">
-        <v>471.283923737809</v>
+        <v>428.6506527636737</v>
       </c>
       <c r="F40" t="n">
-        <v>324.3939762398986</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>156.6911396146176</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1791.646827515028</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1569.880212084554</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1379.448779784041</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429977</v>
+        <v>781.2507297950192</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7412,7 +7412,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7491,10 +7491,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.2593958170923</v>
+        <v>500.930830390936</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630288</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245365</v>
+        <v>379.22087719838</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159868</v>
+        <v>329.9792181898303</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1471.20877751071</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U43" t="n">
-        <v>1182.105910636353</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304662</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673491</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431752</v>
+        <v>748.6622761911539</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734886</v>
+        <v>583.9078606473323</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>581.8252978307332</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7658,16 +7658,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7725,13 +7725,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>740.9069705127581</v>
+        <v>444.8926667912278</v>
       </c>
       <c r="C46" t="n">
-        <v>571.9707875848512</v>
+        <v>374.6279184371643</v>
       </c>
       <c r="D46" t="n">
-        <v>520.525582746359</v>
+        <v>323.1827135986721</v>
       </c>
       <c r="E46" t="n">
-        <v>471.2839237378093</v>
+        <v>273.9410545901224</v>
       </c>
       <c r="F46" t="n">
-        <v>379.0863824474179</v>
+        <v>225.7225416660555</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>156.6911396146179</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7837,19 +7837,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758176</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552289</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>748.6622761911542</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429978</v>
+        <v>527.8696970476241</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430634</v>
+        <v>157.2353108430636</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729011</v>
+        <v>184.4039433729014</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389609</v>
+        <v>191.4948909389612</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333072</v>
+        <v>181.0856325333077</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830246</v>
+        <v>179.355374883025</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383995</v>
+        <v>182.8301554383999</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586589</v>
+        <v>190.8908035586592</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266127</v>
+        <v>192.010383626613</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875977</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372536</v>
+        <v>113.6031223372538</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672277</v>
+        <v>105.962971867228</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253597</v>
+        <v>104.10139812536</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677695</v>
+        <v>92.30246558677729</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359739</v>
+        <v>106.8829608359742</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798327</v>
+        <v>105.3113487798329</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.821278461546</v>
+        <v>120.8212784615461</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.175525256466</v>
+        <v>116.1755252564661</v>
       </c>
       <c r="M10" t="n">
-        <v>119.199607408523</v>
+        <v>119.1996074085231</v>
       </c>
       <c r="N10" t="n">
-        <v>108.428412314078</v>
+        <v>108.4284123140781</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530926</v>
+        <v>120.6694600530928</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662706</v>
+        <v>122.5080856662707</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>170.7178102063592</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784346</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>277.2206841544134</v>
       </c>
       <c r="P26" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>167.736966642836</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>274.8351763665421</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>248.4742701588753</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.6629728741688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.69668876830314</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292093</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>150.0752547881204</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>338.3527451838812</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663271</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104944</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>200.7388747082416</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>311.1943738992637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>28.83786324968467</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271169</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184865</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>27.17080795872326</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6645067649684</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0521183134032</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>57.70643280170906</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>203.0294313795023</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>0.07135577741092902</v>
       </c>
     </row>
     <row r="21">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.125499693443999e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1186383.639967381</v>
+        <v>1186383.639967382</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1186383.639967381</v>
+        <v>1186383.639967382</v>
       </c>
     </row>
     <row r="13">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>286746.7185509634</v>
+        <v>286746.7185509635</v>
       </c>
       <c r="C2" t="n">
         <v>286746.7185509634</v>
       </c>
       <c r="D2" t="n">
-        <v>286754.5344320813</v>
+        <v>286754.5344320812</v>
       </c>
       <c r="E2" t="n">
-        <v>255339.0003167414</v>
+        <v>255339.0003167415</v>
       </c>
       <c r="F2" t="n">
         <v>255339.0003167414</v>
       </c>
       <c r="G2" t="n">
-        <v>278085.7874362877</v>
+        <v>278085.7874362879</v>
       </c>
       <c r="H2" t="n">
-        <v>278085.7874362879</v>
+        <v>278085.787436288</v>
       </c>
       <c r="I2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="J2" t="n">
-        <v>287364.6194524995</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="K2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524996</v>
       </c>
       <c r="L2" t="n">
         <v>287364.6194524994</v>
       </c>
       <c r="M2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="N2" t="n">
         <v>287364.6194524992</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552223</v>
+        <v>59764.55367552172</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163633</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487409</v>
+        <v>37580.10929487394</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983366</v>
+        <v>22821.4678298338</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179689</v>
+        <v>25409.43302179698</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487411</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.9387995428</v>
+        <v>421637.938799543</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362509</v>
+        <v>38804.27401362518</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362509</v>
+        <v>38804.2740136251</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506736</v>
+        <v>75832.43437506739</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506736</v>
+        <v>75832.43437506739</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451309</v>
+        <v>88045.16093451303</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173087</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173085</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815704</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815702</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="P4" t="n">
         <v>90964.01098815713</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186635</v>
+        <v>35148.90543186633</v>
       </c>
       <c r="E5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
         <v>80518.64312521489</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184212</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26503,13 +26503,13 @@
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="O5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="P5" t="n">
         <v>82518.59730624987</v>
-      </c>
-      <c r="O5" t="n">
-        <v>82518.59730624987</v>
-      </c>
-      <c r="P5" t="n">
-        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-188530.1314448571</v>
+        <v>-188534.5450227251</v>
       </c>
       <c r="C6" t="n">
-        <v>-188530.1314448571</v>
+        <v>-188534.5450227252</v>
       </c>
       <c r="D6" t="n">
-        <v>-229796.8634748501</v>
+        <v>-229801.2212249956</v>
       </c>
       <c r="E6" t="n">
-        <v>-949273.7362253426</v>
+        <v>-949502.4906477417</v>
       </c>
       <c r="F6" t="n">
-        <v>139965.2359382898</v>
+        <v>139736.4815158916</v>
       </c>
       <c r="G6" t="n">
-        <v>84154.60064113139</v>
+        <v>84088.32326958726</v>
       </c>
       <c r="H6" t="n">
-        <v>121734.7099360056</v>
+        <v>121668.4325644614</v>
       </c>
       <c r="I6" t="n">
-        <v>90761.46238631032</v>
+        <v>90761.46238631016</v>
       </c>
       <c r="J6" t="n">
-        <v>87719.08535416561</v>
+        <v>87719.08535416549</v>
       </c>
       <c r="K6" t="n">
-        <v>113128.5183759624</v>
+        <v>113128.5183759627</v>
       </c>
       <c r="L6" t="n">
-        <v>75548.40908108838</v>
+        <v>75548.40908108829</v>
       </c>
       <c r="M6" t="n">
-        <v>-88286.08883463191</v>
+        <v>-88286.08883463209</v>
       </c>
       <c r="N6" t="n">
-        <v>113882.0111580922</v>
+        <v>113882.0111580923</v>
       </c>
       <c r="O6" t="n">
         <v>113882.0111580921</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F2" t="n">
         <v>26.9201465871264</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790577</v>
+        <v>69.78465283790517</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26799,16 +26799,16 @@
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.22193528103</v>
+        <v>917.2219352810297</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951237</v>
+        <v>50.70958360951233</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790577</v>
+        <v>69.78465283790517</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755392</v>
+        <v>1019.992047755393</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873716</v>
+        <v>85.82047987873705</v>
       </c>
       <c r="J4" t="n">
-        <v>97.1145259275844</v>
+        <v>97.11452592758474</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959711</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859264</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104728</v>
+        <v>199.6603204104729</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780176</v>
+        <v>132.2465643780178</v>
       </c>
       <c r="S8" t="n">
         <v>202.6272343036573</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672112</v>
+        <v>84.22861846672116</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987526</v>
+        <v>90.83829126987534</v>
       </c>
       <c r="S9" t="n">
         <v>168.8950767192291</v>
@@ -28032,10 +28032,10 @@
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519092</v>
+        <v>84.462208885191</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990468</v>
+        <v>7.649035050990593</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317062</v>
+        <v>75.62456067317071</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437879</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="C13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="D13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="E13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="F13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="G13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="H13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="I13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="J13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="K13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="L13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="M13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="N13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="O13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="P13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="R13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="S13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="T13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="U13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="V13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="W13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="X13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.9201465871264</v>
+        <v>26.92014658712648</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49558901075598</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075557</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.49558901075599</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="D25" t="n">
-        <v>11.49558901075594</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571901</v>
+        <v>11.49558901075518</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571901</v>
+        <v>73.89528320571904</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859125</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55.47778196371118</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810494</v>
+        <v>54.1454821454451</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30192,25 +30192,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="39">
@@ -30378,13 +30378,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -30393,10 +30393,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H40" t="n">
-        <v>55.47778196371097</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.477781963712</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="42">
@@ -30615,25 +30615,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>46.72521440565325</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371146</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F46" t="n">
-        <v>54.14548214544368</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>55.47778196371065</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413295</v>
+        <v>0.2805413179413271</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366642</v>
+        <v>2.873093772366617</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993312</v>
+        <v>10.81556915993302</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362294</v>
+        <v>23.81059368362273</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207942</v>
+        <v>35.68590767207912</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310264</v>
+        <v>44.27152403102602</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396551</v>
+        <v>49.26060069396509</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356631</v>
+        <v>50.05768871356589</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328722</v>
+        <v>47.26805598328681</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661064</v>
+        <v>40.3421921966103</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783677</v>
+        <v>30.29530624783651</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313205</v>
+        <v>17.62255356313191</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588052</v>
+        <v>6.392835282587998</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288171</v>
+        <v>1.22806961928816</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530636</v>
+        <v>0.02244330543530616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796464</v>
+        <v>0.1501028381796451</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840269</v>
+        <v>1.449677410840257</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693966</v>
+        <v>5.168014384693921</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906914</v>
+        <v>14.18142647906901</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710544</v>
+        <v>24.23831663710524</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264647</v>
+        <v>32.59140791264619</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665864</v>
+        <v>38.03263579665831</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655636</v>
+        <v>39.03924649655603</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847051</v>
+        <v>35.71328360847021</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449756</v>
+        <v>28.66305863449732</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447556</v>
+        <v>19.1604956244754</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767871</v>
+        <v>9.319542882767793</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78809438460878</v>
+        <v>2.788094384608756</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189013</v>
+        <v>0.6050197731890078</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00987518672234516</v>
+        <v>0.009875186722345075</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486825</v>
+        <v>0.1258411772486814</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811014</v>
+        <v>1.118842466811005</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078563</v>
+        <v>3.78438740307853</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481853</v>
+        <v>8.896971231481777</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489238</v>
+        <v>14.62045677489226</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477231</v>
+        <v>18.70915102477215</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908211</v>
+        <v>19.72617653908194</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115522</v>
+        <v>19.25713215115506</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875015</v>
+        <v>17.78707839875</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287701</v>
+        <v>15.21991838287688</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852377</v>
+        <v>10.53748257852368</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381669</v>
+        <v>5.658276933381621</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233857</v>
+        <v>2.193068516233839</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625524</v>
+        <v>0.5376850300625479</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564509</v>
+        <v>0.00686406421356445</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233475</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138796</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019262</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>626.3079245986913</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086614</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127265</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,10 +36607,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>785.2736850426326</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>463.1092954636242</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013292</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887893</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
         <v>394.6085160120764</v>
@@ -36765,13 +36765,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,10 +36847,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>418.5312714465555</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36911,7 +36911,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554005</v>
@@ -37075,22 +37075,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>827.1370117794536</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37780,7 +37780,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340054</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
